--- a/logfc_Analysis/logfc_218_HC/meta_218gc_r.xlsx
+++ b/logfc_Analysis/logfc_218_HC/meta_218gc_r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_218_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29EFAD-C89D-4541-AE53-CDBD3323425A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A64EE7-6824-4C26-911E-16D65C47D3FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC4A7487-883C-464C-9A95-3B8D1FFC3C16}"/>
+    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{CC4A7487-883C-464C-9A95-3B8D1FFC3C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="132">
   <si>
     <t>TAIR</t>
   </si>
@@ -404,22 +404,47 @@
     <t>GO:0000910, GO:0003824, GO:0004672, GO:0006139, GO:0006259, GO:0006260, GO:0006281, GO:0006464, GO:0006468, GO:0007049, GO:0007067, GO:0008152, GO:0009987, GO:0016301, GO:0016740, GO:0019538, GO:0044238</t>
   </si>
   <si>
+    <t>ASF1B</t>
+  </si>
+  <si>
+    <t>This gene is predicted to encode a silencing group A protein. Plant lines expressing RNAi constructs directed against SGA1 have reduced levels of agrobacterium-mediated root transformation.</t>
+  </si>
+  <si>
+    <t>NM_123171</t>
+  </si>
+  <si>
+    <t>3702.AT5G38110.1</t>
+  </si>
+  <si>
+    <t>GO:0003676, GO:0003682, GO:0005488, GO:0006139, GO:0006325, GO:0006996, GO:0008152, GO:0009987, GO:0016043, GO:0044238, GO:0071840</t>
+  </si>
+  <si>
+    <t>Subcellular location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AT5G38110</t>
-  </si>
-  <si>
-    <t>ASF1B</t>
-  </si>
-  <si>
-    <t>This gene is predicted to encode a silencing group A protein. Plant lines expressing RNAi constructs directed against SGA1 have reduced levels of agrobacterium-mediated root transformation.</t>
-  </si>
-  <si>
-    <t>NM_123171</t>
-  </si>
-  <si>
-    <t>3702.AT5G38110.1</t>
-  </si>
-  <si>
-    <t>GO:0003676, GO:0003682, GO:0005488, GO:0006139, GO:0006325, GO:0006996, GO:0008152, GO:0009987, GO:0016043, GO:0044238, GO:0071840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitochondrion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endoplasmic reticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -794,15 +819,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FD639D-4ECE-46EF-A3F4-650979FB2EBE}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -813,19 +838,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -836,19 +864,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>837360</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -859,19 +890,22 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>844068</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -882,19 +916,22 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>844097</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -905,19 +942,22 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>816591</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
       <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -928,19 +968,22 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>816985</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -951,19 +994,22 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>817684</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -974,19 +1020,22 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>817921</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -997,19 +1046,22 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>821018</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
       <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1019,20 +1071,23 @@
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>821212</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
       <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1043,19 +1098,22 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>821187</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1066,19 +1124,22 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>821496</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1089,19 +1150,22 @@
         <v>62</v>
       </c>
       <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>822040</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>64</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1112,19 +1176,22 @@
         <v>68</v>
       </c>
       <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>823924</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -1135,19 +1202,22 @@
         <v>73</v>
       </c>
       <c r="D15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
         <v>74</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>828230</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>75</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1158,19 +1228,22 @@
         <v>79</v>
       </c>
       <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
         <v>80</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>826875</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>81</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1181,19 +1254,22 @@
         <v>85</v>
       </c>
       <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>828573</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -1204,19 +1280,22 @@
         <v>89</v>
       </c>
       <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
         <v>90</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>829211</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -1227,19 +1306,22 @@
         <v>95</v>
       </c>
       <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
         <v>96</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>831710</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>98</v>
       </c>
@@ -1250,19 +1332,22 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>834082</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>102</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -1273,19 +1358,22 @@
         <v>106</v>
       </c>
       <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
         <v>107</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>835368</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>108</v>
       </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -1296,19 +1384,22 @@
         <v>111</v>
       </c>
       <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
         <v>112</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>835514</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>113</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -1319,39 +1410,45 @@
         <v>116</v>
       </c>
       <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>844108</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>118</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
         <v>120</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>121</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24">
+        <v>833791</v>
+      </c>
+      <c r="G24" t="s">
         <v>123</v>
       </c>
-      <c r="E24">
-        <v>833791</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>124</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
